--- a/docs/admin/Relatorio_Comissao_Olyva.xlsx
+++ b/docs/admin/Relatorio_Comissao_Olyva.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="14">
   <si>
     <t>PROJETO</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>APP ACADEMIA VIDEOS</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -134,18 +137,12 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -165,6 +162,15 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -472,7 +478,7 @@
   <dimension ref="B2:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,10 +486,10 @@
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="34.5703125" customWidth="1"/>
     <col min="3" max="3" width="48.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="29.28515625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" style="10" customWidth="1"/>
     <col min="8" max="8" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -494,23 +500,23 @@
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="I2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -519,466 +525,485 @@
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>16000</v>
       </c>
-      <c r="E3" s="9">
-        <v>10</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="E3" s="7">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4">
         <f>D3*E3%</f>
         <v>1600</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="G3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="6">
-        <v>32000</v>
-      </c>
-      <c r="E4" s="9">
-        <v>10</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="D4" s="4">
+        <v>32300</v>
+      </c>
+      <c r="E4" s="7">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4">
         <f t="shared" ref="F4:F31" si="0">D4*E4%</f>
-        <v>3200</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="4">
-        <f>SUM(F3:F31)</f>
-        <v>6400</v>
-      </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+        <v>3230</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="13">
+        <f>SUM(D3:D31)</f>
+        <v>57200</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="6">
-        <v>7000</v>
-      </c>
-      <c r="E5" s="9">
-        <v>10</v>
-      </c>
-      <c r="F5" s="6">
-        <f t="shared" si="0"/>
-        <v>700</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="D5" s="4">
+        <v>8900</v>
+      </c>
+      <c r="E5" s="7">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="0"/>
+        <v>890</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="6">
-        <v>9000</v>
-      </c>
-      <c r="E6" s="9">
-        <v>10</v>
-      </c>
-      <c r="F6" s="6">
-        <f t="shared" si="0"/>
-        <v>900</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="9">
-        <v>10</v>
-      </c>
-      <c r="F7" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="7">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="9">
-        <v>10</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="7">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="11">
+        <f>SUM(F3:F31)</f>
+        <v>5720</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="9">
-        <v>10</v>
-      </c>
-      <c r="F9" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="7">
+        <v>10</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="9">
-        <v>10</v>
-      </c>
-      <c r="F10" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="11" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="7">
+        <v>10</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="9">
-        <v>10</v>
-      </c>
-      <c r="F11" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="11" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="7">
+        <v>10</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="9">
-        <v>10</v>
-      </c>
-      <c r="F12" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="11" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="7">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="9">
-        <v>10</v>
-      </c>
-      <c r="F13" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="11" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="7">
+        <v>10</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="9">
-        <v>10</v>
-      </c>
-      <c r="F14" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="11" t="s">
+      <c r="D14" s="4"/>
+      <c r="E14" s="7">
+        <v>10</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="9">
-        <v>10</v>
-      </c>
-      <c r="F15" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="11" t="s">
+      <c r="D15" s="4"/>
+      <c r="E15" s="7">
+        <v>10</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="9">
-        <v>10</v>
-      </c>
-      <c r="F16" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="11" t="s">
+      <c r="D16" s="4"/>
+      <c r="E16" s="7">
+        <v>10</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="9">
-        <v>10</v>
-      </c>
-      <c r="F17" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="11" t="s">
+      <c r="D17" s="4"/>
+      <c r="E17" s="7">
+        <v>10</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="9">
-        <v>10</v>
-      </c>
-      <c r="F18" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="11" t="s">
+      <c r="D18" s="4"/>
+      <c r="E18" s="7">
+        <v>10</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="9">
-        <v>10</v>
-      </c>
-      <c r="F19" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="11" t="s">
+      <c r="D19" s="4"/>
+      <c r="E19" s="7">
+        <v>10</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="9">
-        <v>10</v>
-      </c>
-      <c r="F20" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="11" t="s">
+      <c r="D20" s="4"/>
+      <c r="E20" s="7">
+        <v>10</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="9">
-        <v>10</v>
-      </c>
-      <c r="F21" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="11" t="s">
+      <c r="D21" s="4"/>
+      <c r="E21" s="7">
+        <v>10</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="9">
-        <v>10</v>
-      </c>
-      <c r="F22" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="11" t="s">
+      <c r="D22" s="4"/>
+      <c r="E22" s="7">
+        <v>10</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="9">
-        <v>10</v>
-      </c>
-      <c r="F23" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="11" t="s">
+      <c r="D23" s="4"/>
+      <c r="E23" s="7">
+        <v>10</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="9">
-        <v>10</v>
-      </c>
-      <c r="F24" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="11" t="s">
+      <c r="D24" s="4"/>
+      <c r="E24" s="7">
+        <v>10</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="9">
-        <v>10</v>
-      </c>
-      <c r="F25" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="11" t="s">
+      <c r="D25" s="4"/>
+      <c r="E25" s="7">
+        <v>10</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="9">
-        <v>10</v>
-      </c>
-      <c r="F26" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="11" t="s">
+      <c r="D26" s="4"/>
+      <c r="E26" s="7">
+        <v>10</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="9">
-        <v>10</v>
-      </c>
-      <c r="F27" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="11" t="s">
+      <c r="D27" s="4"/>
+      <c r="E27" s="7">
+        <v>10</v>
+      </c>
+      <c r="F27" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="9">
-        <v>10</v>
-      </c>
-      <c r="F28" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="11" t="s">
+      <c r="D28" s="4"/>
+      <c r="E28" s="7">
+        <v>10</v>
+      </c>
+      <c r="F28" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="9">
-        <v>10</v>
-      </c>
-      <c r="F29" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="11" t="s">
+      <c r="D29" s="4"/>
+      <c r="E29" s="7">
+        <v>10</v>
+      </c>
+      <c r="F29" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="9">
-        <v>10</v>
-      </c>
-      <c r="F30" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="11" t="s">
+      <c r="D30" s="4"/>
+      <c r="E30" s="7">
+        <v>10</v>
+      </c>
+      <c r="F30" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="9">
-        <v>10</v>
-      </c>
-      <c r="F31" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="11" t="s">
+      <c r="D31" s="4"/>
+      <c r="E31" s="7">
+        <v>10</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="9" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
+    <mergeCell ref="I8:K9"/>
+    <mergeCell ref="I6:K7"/>
     <mergeCell ref="I4:K5"/>
     <mergeCell ref="I2:K3"/>
   </mergeCells>

--- a/docs/admin/Relatorio_Comissao_Olyva.xlsx
+++ b/docs/admin/Relatorio_Comissao_Olyva.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="10050"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="21840" windowHeight="10050"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -16,14 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="13">
   <si>
     <t>PROJETO</t>
   </si>
   <si>
-    <t>DESCRIÇÃO</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALOR </t>
   </si>
   <si>
@@ -39,9 +36,6 @@
     <t>APP ACADEMIA FICHA</t>
   </si>
   <si>
-    <t>APLICATIVO PARA CONTROLE DE FICHA DE ALUNO</t>
-  </si>
-  <si>
     <t>%</t>
   </si>
   <si>
@@ -54,10 +48,13 @@
     <t>APP MOSTRUARIO</t>
   </si>
   <si>
-    <t>APP ACADEMIA VIDEOS</t>
-  </si>
-  <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>HORAS</t>
+  </si>
+  <si>
+    <t>VALOR HORA</t>
   </si>
 </sst>
 </file>
@@ -137,7 +134,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -171,6 +168,12 @@
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -475,537 +478,657 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K31"/>
+  <dimension ref="B2:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="34.5703125" customWidth="1"/>
-    <col min="3" max="3" width="48.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="15" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="29.28515625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="2.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="29.28515625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="12"/>
+      <c r="J2" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="12"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C3" s="14">
+        <v>140</v>
       </c>
       <c r="D3" s="4">
         <v>16000</v>
       </c>
-      <c r="E3" s="7">
-        <v>10</v>
-      </c>
-      <c r="F3" s="4">
-        <f>D3*E3%</f>
+      <c r="E3" s="4">
+        <f>IF(D3="","",D3/C3)</f>
+        <v>114.28571428571429</v>
+      </c>
+      <c r="F3" s="7">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4">
+        <f>D3*F3%</f>
         <v>1600</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="12"/>
+      <c r="H3" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="12"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="C4" s="14">
+        <v>280</v>
+      </c>
       <c r="D4" s="4">
         <v>32300</v>
       </c>
-      <c r="E4" s="7">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4">
-        <f t="shared" ref="F4:F31" si="0">D4*E4%</f>
+      <c r="E4" s="4">
+        <f t="shared" ref="E4:E31" si="0">IF(D4="","",D4/C4)</f>
+        <v>115.35714285714286</v>
+      </c>
+      <c r="F4" s="7">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" ref="G4:G31" si="1">D4*F4%</f>
         <v>3230</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="13">
+      <c r="H4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="13">
         <f>SUM(D3:D31)</f>
         <v>57200</v>
       </c>
-      <c r="J4" s="12"/>
       <c r="K4" s="12"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="12"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="C5" s="14">
+        <v>60</v>
+      </c>
       <c r="D5" s="4">
         <v>8900</v>
       </c>
-      <c r="E5" s="7">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4">
-        <f t="shared" si="0"/>
+      <c r="E5" s="4">
+        <f t="shared" si="0"/>
+        <v>148.33333333333334</v>
+      </c>
+      <c r="F5" s="7">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="1"/>
         <v>890</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="12"/>
+      <c r="H5" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7">
-        <v>10</v>
-      </c>
-      <c r="F6" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="12"/>
+      <c r="L5" s="12"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F6" s="7">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="K6" s="12"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="7">
-        <v>10</v>
-      </c>
-      <c r="F7" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="12"/>
+      <c r="E7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F7" s="7">
+        <v>10</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="7">
-        <v>10</v>
-      </c>
-      <c r="F8" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="11">
-        <f>SUM(F3:F31)</f>
+      <c r="E8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F8" s="7">
+        <v>10</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="11">
+        <f>SUM(G3:G31)</f>
         <v>5720</v>
       </c>
-      <c r="J8" s="11"/>
       <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="7">
-        <v>10</v>
-      </c>
-      <c r="F9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="11"/>
+      <c r="E9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F9" s="7">
+        <v>10</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="7">
-        <v>10</v>
-      </c>
-      <c r="F10" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F10" s="7">
+        <v>10</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="7">
-        <v>10</v>
-      </c>
-      <c r="F11" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F11" s="7">
+        <v>10</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="7">
-        <v>10</v>
-      </c>
-      <c r="F12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F12" s="7">
+        <v>10</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="7">
-        <v>10</v>
-      </c>
-      <c r="F13" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F13" s="7">
+        <v>10</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="7">
-        <v>10</v>
-      </c>
-      <c r="F14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F14" s="7">
+        <v>10</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="7">
-        <v>10</v>
-      </c>
-      <c r="F15" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F15" s="7">
+        <v>10</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="7">
-        <v>10</v>
-      </c>
-      <c r="F16" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F16" s="7">
+        <v>10</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="7">
-        <v>10</v>
-      </c>
-      <c r="F17" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F17" s="7">
+        <v>10</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="7">
-        <v>10</v>
-      </c>
-      <c r="F18" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F18" s="7">
+        <v>10</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="7">
-        <v>10</v>
-      </c>
-      <c r="F19" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F19" s="7">
+        <v>10</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="7">
-        <v>10</v>
-      </c>
-      <c r="F20" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F20" s="7">
+        <v>10</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="7">
-        <v>10</v>
-      </c>
-      <c r="F21" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F21" s="7">
+        <v>10</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="7">
-        <v>10</v>
-      </c>
-      <c r="F22" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F22" s="7">
+        <v>10</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="C23" s="14"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="7">
-        <v>10</v>
-      </c>
-      <c r="F23" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F23" s="7">
+        <v>10</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="7">
-        <v>10</v>
-      </c>
-      <c r="F24" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E24" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F24" s="7">
+        <v>10</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="7">
-        <v>10</v>
-      </c>
-      <c r="F25" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E25" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F25" s="7">
+        <v>10</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="C26" s="14"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="7">
-        <v>10</v>
-      </c>
-      <c r="F26" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E26" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F26" s="7">
+        <v>10</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="C27" s="14"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="7">
-        <v>10</v>
-      </c>
-      <c r="F27" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E27" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F27" s="7">
+        <v>10</v>
+      </c>
+      <c r="G27" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="7">
-        <v>10</v>
-      </c>
-      <c r="F28" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E28" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F28" s="7">
+        <v>10</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="C29" s="14"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="7">
-        <v>10</v>
-      </c>
-      <c r="F29" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E29" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F29" s="7">
+        <v>10</v>
+      </c>
+      <c r="G29" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="C30" s="14"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="7">
-        <v>10</v>
-      </c>
-      <c r="F30" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E30" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F30" s="7">
+        <v>10</v>
+      </c>
+      <c r="G30" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="C31" s="14"/>
       <c r="D31" s="4"/>
-      <c r="E31" s="7">
-        <v>10</v>
-      </c>
-      <c r="F31" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>9</v>
+      <c r="E31" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F31" s="7">
+        <v>10</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="I8:K9"/>
-    <mergeCell ref="I6:K7"/>
-    <mergeCell ref="I4:K5"/>
-    <mergeCell ref="I2:K3"/>
+    <mergeCell ref="J8:L9"/>
+    <mergeCell ref="J6:L7"/>
+    <mergeCell ref="J4:L5"/>
+    <mergeCell ref="J2:L3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
